--- a/List of species already with landmarks.xlsx
+++ b/List of species already with landmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Dropbox\Mein PC (Gemeinsamer-PC)\Documents\GitHub\Ichneumonidae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6907FC5A-BD9A-45AE-9664-A5949F8865EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF780F6-0AB6-43D8-821F-41B995B40720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54F27ED2-8E87-4833-892F-D8C6238AFF72}"/>
+    <workbookView xWindow="1485" yWindow="30" windowWidth="12330" windowHeight="14190" xr2:uid="{54F27ED2-8E87-4833-892F-D8C6238AFF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t>GYNEPETOMORPHINA</t>
+  </si>
+  <si>
+    <t>Hemitelina</t>
+  </si>
+  <si>
+    <t>Endaseina</t>
+  </si>
+  <si>
+    <t>Agrothereutina</t>
+  </si>
+  <si>
+    <t>PHYGEUDONTINAE</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5890763B-656B-40BA-AEB6-A4A22C18B879}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="B25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,21 +1115,24 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Echthrini</v>
       </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>CLOSED</v>
-      </c>
-      <c r="D6" s="2" t="str">
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CLOSED</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A6,7), 3), [1]Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>echthrini</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1381,21 +1396,27 @@
         <v>gelina</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Gelini</v>
-      </c>
-      <c r="C22" s="2" t="str">
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelini</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>OPEN</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="1" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A22,7), 3), [1]Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>endaseina</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,21 +1453,24 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Gelini</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>CLOSED</v>
-      </c>
-      <c r="D25" s="2" t="str">
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Gelini</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CLOSED</v>
+      </c>
+      <c r="D25" s="1" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A25,7), 3), [1]Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>phygadeuontina</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,24 +1592,30 @@
         <v>gabuniina</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Mestioni</v>
-      </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>CLOSED</v>
-      </c>
-      <c r="D33" s="2" t="str">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mestioni</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>CLOSED</v>
+      </c>
+      <c r="D33" s="1" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A33,7), 3), [1]Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>agrothereutina</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1632,7 @@
         <v>sphecophagina</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1619,7 +1649,7 @@
         <v>ateleute</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1636,7 +1666,7 @@
         <v>lymeonina</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1653,7 +1683,7 @@
         <v>coesula</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1670,7 +1700,7 @@
         <v>ceratocryptina</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1687,7 +1717,7 @@
         <v>mesostenina</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1704,7 +1734,7 @@
         <v>glodianina</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1721,7 +1751,7 @@
         <v>melanocryptus</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1738,7 +1768,7 @@
         <v>goryphina</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1755,7 +1785,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1772,7 +1802,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1789,7 +1819,7 @@
         <v>nematopodiina</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -1806,7 +1836,7 @@
         <v>vagenathina</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1853,7 @@
         <v>nematopodiina</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -2133,11 +2163,11 @@
         <v>69</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B129" si="2" xml:space="preserve"> IF(ISNUMBER(SEARCH("ech",A66)), "Echthrini", IF(ISNUMBER(SEARCH("mes",A66)), "Mestioni", "Gelini"))</f>
+        <f t="shared" ref="B66:B96" si="2" xml:space="preserve"> IF(ISNUMBER(SEARCH("ech",A66)), "Echthrini", IF(ISNUMBER(SEARCH("mes",A66)), "Mestioni", "Gelini"))</f>
         <v>Mestioni</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" ref="C66:C129" si="3" xml:space="preserve"> IF(ISNUMBER(SEARCH("_o",A66)), "OPEN", "CLOSED")</f>
+        <f t="shared" ref="C66:C96" si="3" xml:space="preserve"> IF(ISNUMBER(SEARCH("_o",A66)), "OPEN", "CLOSED")</f>
         <v>CLOSED</v>
       </c>
       <c r="D66" s="2" t="str">
@@ -2383,7 +2413,7 @@
         <v>phygadeuontina</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2430,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -2417,7 +2447,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -2434,7 +2464,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -2451,7 +2481,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -2468,7 +2498,7 @@
         <v>endaseina</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -2485,7 +2515,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
@@ -2502,7 +2532,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
@@ -2519,24 +2549,30 @@
         <v>phygadeuontina</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Gelini</v>
-      </c>
-      <c r="C89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>CLOSED</v>
-      </c>
-      <c r="D89" s="2" t="str">
+      <c r="B89" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Gelini</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CLOSED</v>
+      </c>
+      <c r="D89" s="1" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A89,7), 3), [1]Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>hemitelina</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -2553,7 +2589,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -2570,7 +2606,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -2587,7 +2623,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -2604,7 +2640,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -2621,7 +2657,7 @@
         <v>bathytrichina</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
@@ -2638,7 +2674,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>

--- a/List of species already with landmarks.xlsx
+++ b/List of species already with landmarks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Dropbox\Mein PC (Gemeinsamer-PC)\Documents\GitHub\Ichneumonidae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aea3e316dc92a4d/Dokumente/GitHub/Ichneumonidae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF780F6-0AB6-43D8-821F-41B995B40720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2EF780F6-0AB6-43D8-821F-41B995B40720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5E890D5-64B0-4222-A3F6-679F3F7E2079}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="30" windowWidth="12330" windowHeight="14190" xr2:uid="{54F27ED2-8E87-4833-892F-D8C6238AFF72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{54F27ED2-8E87-4833-892F-D8C6238AFF72}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -452,7 +452,7 @@
       <sheetName val="Subtribes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
@@ -1014,20 +1014,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5890763B-656B-40BA-AEB6-A4A22C18B879}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>gelina</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>rothneyiina</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>hemitelina</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>bathytrichina</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>ethelurgina</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>stilpnina</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>cremnodina</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>gabuniina</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>sphecophagina</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>ateleute</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>lymeonina</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>coesula</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>ceratocryptina</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>mesostenina</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>glodianina</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>melanocryptus</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>goryphina</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>nematopodiina</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>vagenathina</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>nematopodiina</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>ischnina</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>agrothereutina</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>baryceratina</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>80</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>81</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>82</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>echthrini</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>phygadeuontina</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>84</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>85</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>86</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>87</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>88</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>endaseina</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>89</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>90</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>91</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>phygadeuontina</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>93</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>acrolytina</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>chiroticina</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>bathytrichina</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>mastrina</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
